--- a/teleamiguis/src/main/java/services/banco.xlsx
+++ b/teleamiguis/src/main/java/services/banco.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
   <si>
     <t>NumVoucher</t>
   </si>
@@ -69,31 +69,34 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="1">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="1">
         <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -102,10 +105,10 @@
         <v>0.0</v>
       </c>
       <c r="B2" t="n">
-        <v>2309.0</v>
+        <v>2533.0</v>
       </c>
       <c r="C2" t="n">
-        <v>5149.0</v>
+        <v>34586.0</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
@@ -116,10 +119,10 @@
         <v>1.0</v>
       </c>
       <c r="B3" t="n">
-        <v>2310.0</v>
+        <v>2543.0</v>
       </c>
       <c r="C3" t="n">
-        <v>3154.0</v>
+        <v>7097.0</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
@@ -130,13 +133,13 @@
         <v>2.0</v>
       </c>
       <c r="B4" t="n">
-        <v>2308.0</v>
+        <v>2541.0</v>
       </c>
       <c r="C4" t="n">
-        <v>47347.0</v>
+        <v>54360.0</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -144,13 +147,13 @@
         <v>3.0</v>
       </c>
       <c r="B5" t="n">
-        <v>2312.0</v>
+        <v>2542.0</v>
       </c>
       <c r="C5" t="n">
-        <v>28926.0</v>
+        <v>7838.0</v>
       </c>
       <c r="D5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -158,10 +161,10 @@
         <v>4.0</v>
       </c>
       <c r="B6" t="n">
-        <v>2313.0</v>
+        <v>2547.0</v>
       </c>
       <c r="C6" t="n">
-        <v>29725.0</v>
+        <v>40370.0</v>
       </c>
       <c r="D6" t="s">
         <v>5</v>
@@ -172,10 +175,10 @@
         <v>5.0</v>
       </c>
       <c r="B7" t="n">
-        <v>2311.0</v>
+        <v>2545.0</v>
       </c>
       <c r="C7" t="n">
-        <v>69968.0</v>
+        <v>55049.0</v>
       </c>
       <c r="D7" t="s">
         <v>6</v>
@@ -186,152 +189,12 @@
         <v>6.0</v>
       </c>
       <c r="B8" t="n">
-        <v>2317.0</v>
+        <v>2546.0</v>
       </c>
       <c r="C8" t="n">
-        <v>28233.0</v>
+        <v>15125.0</v>
       </c>
       <c r="D8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="B9" t="n">
-        <v>2318.0</v>
-      </c>
-      <c r="C9" t="n">
-        <v>11290.0</v>
-      </c>
-      <c r="D9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="B10" t="n">
-        <v>2323.0</v>
-      </c>
-      <c r="C10" t="n">
-        <v>2616.0</v>
-      </c>
-      <c r="D10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="B11" t="n">
-        <v>2322.0</v>
-      </c>
-      <c r="C11" t="n">
-        <v>54891.0</v>
-      </c>
-      <c r="D11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="B12" t="n">
-        <v>2321.0</v>
-      </c>
-      <c r="C12" t="n">
-        <v>62828.0</v>
-      </c>
-      <c r="D12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="B13" t="n">
-        <v>2326.0</v>
-      </c>
-      <c r="C13" t="n">
-        <v>42009.0</v>
-      </c>
-      <c r="D13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="B14" t="n">
-        <v>2325.0</v>
-      </c>
-      <c r="C14" t="n">
-        <v>25545.0</v>
-      </c>
-      <c r="D14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="B15" t="n">
-        <v>2329.0</v>
-      </c>
-      <c r="C15" t="n">
-        <v>26496.0</v>
-      </c>
-      <c r="D15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="B16" t="n">
-        <v>2430.0</v>
-      </c>
-      <c r="C16" t="n">
-        <v>14163.0</v>
-      </c>
-      <c r="D16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="B17" t="n">
-        <v>2429.0</v>
-      </c>
-      <c r="C17" t="n">
-        <v>10292.0</v>
-      </c>
-      <c r="D17" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="B18" t="n">
-        <v>2431.0</v>
-      </c>
-      <c r="C18" t="n">
-        <v>20837.0</v>
-      </c>
-      <c r="D18" t="s">
         <v>6</v>
       </c>
     </row>

--- a/teleamiguis/src/main/java/services/banco.xlsx
+++ b/teleamiguis/src/main/java/services/banco.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>NumVoucher</t>
   </si>
@@ -24,9 +24,6 @@
   </si>
   <si>
     <t>Banco</t>
-  </si>
-  <si>
-    <t>Bancolombia</t>
   </si>
   <si>
     <t>Banco de bogota</t>
@@ -80,7 +77,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -105,10 +102,10 @@
         <v>0.0</v>
       </c>
       <c r="B2" t="n">
-        <v>2533.0</v>
+        <v>2872.0</v>
       </c>
       <c r="C2" t="n">
-        <v>34586.0</v>
+        <v>24120.0</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
@@ -119,83 +116,13 @@
         <v>1.0</v>
       </c>
       <c r="B3" t="n">
-        <v>2543.0</v>
+        <v>2871.0</v>
       </c>
       <c r="C3" t="n">
-        <v>7097.0</v>
+        <v>54770.0</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2541.0</v>
-      </c>
-      <c r="C4" t="n">
-        <v>54360.0</v>
-      </c>
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="B5" t="n">
-        <v>2542.0</v>
-      </c>
-      <c r="C5" t="n">
-        <v>7838.0</v>
-      </c>
-      <c r="D5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="B6" t="n">
-        <v>2547.0</v>
-      </c>
-      <c r="C6" t="n">
-        <v>40370.0</v>
-      </c>
-      <c r="D6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="B7" t="n">
-        <v>2545.0</v>
-      </c>
-      <c r="C7" t="n">
-        <v>55049.0</v>
-      </c>
-      <c r="D7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="B8" t="n">
-        <v>2546.0</v>
-      </c>
-      <c r="C8" t="n">
-        <v>15125.0</v>
-      </c>
-      <c r="D8" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
